--- a/biology/Histoire de la zoologie et de la botanique/Gottlieb_August_Wilhelm_Herrich-Schäffer/Gottlieb_August_Wilhelm_Herrich-Schäffer.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Gottlieb_August_Wilhelm_Herrich-Schäffer/Gottlieb_August_Wilhelm_Herrich-Schäffer.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Gottlieb_August_Wilhelm_Herrich-Sch%C3%A4ffer</t>
+          <t>Gottlieb_August_Wilhelm_Herrich-Schäffer</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Gottlieb August Wilhelm Herrich-Schäffer est un médecin et un entomologiste allemand, né le 17 décembre 1799 à Ratisbonne et mort le 14 avril 1874 dans cette même ville.
 C'est un auteur prolifique qui fait notamment paraître Die Schmetterlinge Europas. Il décrit des papillons récoltés par Josef Johann Mann (en) (1804-1889) et Julius Lederer (1821-1870). Il est fait citoyen d'honneur de la ville de Ratisbonne en 1871.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Gottlieb_August_Wilhelm_Herrich-Sch%C3%A4ffer</t>
+          <t>Gottlieb_August_Wilhelm_Herrich-Schäffer</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Die wanzenartigen Insekten. Getreu nach der Natur abgebildet und beschrieben. (Fortsetzung des Hahn’schen Werkes). (Volume 4, 1839 - Volume 9 &amp; Alphabetisches synonymisches Verzeichniss, 1853) F? band. C.H. Zeh, Nbg. 108 pp.1839.
 Die Wanzenartigen Insekten. Getreu nach der Natur abgebildet und beschrieben. Achter band. J.L. Lotzbeck, Nbg. 130 pp.1848.
